--- a/public/Reliance Industries Ltd._Social.xlsx
+++ b/public/Reliance Industries Ltd._Social.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jithesh\Downloads\Reliance Industries Ltd._Environment-20210317T160747Z-001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranam Rai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7093273-65DA-4CD5-BE44-452D36CA1DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company Info" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data collection sheet'!$A$1:$AC$443</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateCount="32000"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,13 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={89377D19-E252-8148-8C81-C82CA96B5654}</author>
     <author>tc={9A4906D5-1989-7049-9006-9FC173611B69}</author>
   </authors>
   <commentList>
-    <comment ref="E146" authorId="0" shapeId="0">
+    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E367" authorId="1" shapeId="0">
+    <comment ref="E367" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6839" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6911" uniqueCount="1149">
   <si>
     <t>SOCIAL</t>
   </si>
@@ -3496,19 +3497,73 @@
   <si>
     <t>Sajeedah</t>
   </si>
+  <si>
+    <t>. In these testing times of COVID-19, Reliance Foundation is running the world’s largest food-distribution programme to serve the ones worst hit by the pandemic. COVID-19 PANDEMIC RESPONSE We have been tirelessly working on a multi-pronged prevention, mitigation, adaptation and ongoing support strategy with the government and civil society to beat this pandemic. From hospitals and equipment to catering to everyday needs such as hunger and safety, we have mustered all our resources to serve our people and our country.</t>
+  </si>
+  <si>
+    <t>Other steps taken were: deployment of JioPOS Lite for mobile recharges, limited hours store operations in few rural and semi urban areas, shift to virtual call center for customer support, enhancing network capacity for better indoor coverage in residential areas and above all continuous drive for improvement in quality of service resulting in better customer experiences.</t>
+  </si>
+  <si>
+    <t>n addition, Jio has also offered double data and additional offnet minutes to all mobility add-on pack users, double data for all JioFiber subscribers and introduced complimentary 10 Mbps JioFiber plan, not yet launched for outside Reliance, as it is under testing phase.</t>
+  </si>
+  <si>
+    <t>RIL is the first non-European domiciled borrower and the first Asian corporate to enter this traditionally German-centric debt market utilising a broad marketing strategy.</t>
+  </si>
+  <si>
+    <t> Auditing periodically internal and external work procedures and practices.  Investigating all incidents relating to Health, Safety and Environment, including minor ones and near misses, followed by implementation of corrective measures.</t>
+  </si>
+  <si>
+    <t>http://www.riil.in/pdf/health-safety-and-environment-policy.pdf</t>
+  </si>
+  <si>
+    <t>Health, Safety and Environment Policy</t>
+  </si>
+  <si>
+    <t>Flexible working hours with various leave provisions</t>
+  </si>
+  <si>
+    <t>https://careers.ril.com/frmemployeebenefitsN.aspx</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parental Support
+With us, you will have the resources to care for those closest to you. Options include generous parental leave policies, flexible working arrangements and dedicated support to help you with the right child care facility for your dear one.
+</t>
+  </si>
+  <si>
+    <t>Additionally, our customers have benefited from high quality products delivered at extremely competitive price</t>
+  </si>
+  <si>
+    <t>Reliance Composites is building an application development centre to showcase capabilities and to help customers understand the applications. It will be equipped with state-of-the-art characterisation and testing facility to foster innovation and new product development.</t>
+  </si>
+  <si>
+    <t>REFINING &amp; MARKETING RIL has focused on debottlenecking, capacity enhancement, energy conservation and product quality improvement to enhance its competitive strengths.</t>
+  </si>
+  <si>
+    <t>It reflects RIL’s belief in its suppliers to achieve and adhere to its core values, and comply with labour, human rights, health and safety, environmental protection, business integrity and confidentiality laws and standards. Consequently, Reliance conducts a comprehensive sustainability assessment and rigorous screening process for registration and evaluation of all suppliers.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3649,6 +3704,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3842,176 +3909,188 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="54">
@@ -4885,11 +4964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -4905,54 +4984,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>686</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>687</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="50" t="s">
         <v>688</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="50" t="s">
         <v>689</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="51" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="50" t="s">
         <v>692</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="50" t="s">
         <v>967</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="50" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>982</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>983</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="54">
         <v>196667</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="52">
         <v>19209</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="52" t="s">
         <v>757</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="53" t="s">
         <v>984</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="52" t="s">
         <v>985</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="52" t="s">
         <v>1133</v>
       </c>
     </row>
@@ -4961,7 +5040,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet3!$A$2:$A$502</xm:f>
           </x14:formula1>
@@ -4974,7 +5053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A502"/>
   <sheetViews>
     <sheetView topLeftCell="A489" workbookViewId="0">
@@ -7502,12 +7581,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK443"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
@@ -7682,7 +7759,7 @@
       <c r="L2" s="40" t="s">
         <v>1006</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="42" t="s">
         <v>1007</v>
       </c>
       <c r="N2" s="44">
@@ -7723,11 +7800,11 @@
       </c>
       <c r="AG2" s="18"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="50" t="s">
+      <c r="AI2" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="52"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="63"/>
     </row>
     <row r="3" spans="1:37" ht="15.95" customHeight="1" thickBot="1">
       <c r="A3" s="30" t="s">
@@ -7764,7 +7841,7 @@
       <c r="L3" s="40" t="s">
         <v>988</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="42" t="s">
         <v>990</v>
       </c>
       <c r="N3" s="44">
@@ -7932,7 +8009,7 @@
       <c r="L5" s="26" t="s">
         <v>992</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="42" t="s">
         <v>993</v>
       </c>
       <c r="N5" s="44">
@@ -8197,16 +8274,26 @@
         <v>641</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K8" s="49">
         <v>43921</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="L8" s="55" t="s">
+        <v>988</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>990</v>
+      </c>
+      <c r="N8" s="26">
+        <v>6</v>
+      </c>
+      <c r="O8" s="48">
+        <v>44005</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1134</v>
+      </c>
       <c r="Q8" s="26" t="s">
         <v>987</v>
       </c>
@@ -8219,7 +8306,9 @@
       <c r="T8" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U8" s="26"/>
+      <c r="U8" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V8" s="35"/>
       <c r="W8" s="37"/>
       <c r="X8" s="33"/>
@@ -8929,7 +9018,7 @@
       <c r="L16" s="40" t="s">
         <v>1001</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="42" t="s">
         <v>1002</v>
       </c>
       <c r="N16" s="44">
@@ -10538,21 +10627,31 @@
         <v>641</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K40" s="49">
         <v>43921</v>
       </c>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
+      <c r="L40" s="55" t="s">
+        <v>988</v>
+      </c>
+      <c r="M40" s="42" t="s">
+        <v>990</v>
+      </c>
+      <c r="N40" s="26">
+        <v>88</v>
+      </c>
+      <c r="O40" s="48">
+        <v>44005</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1135</v>
+      </c>
       <c r="Q40" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R40" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S40" s="26" t="s">
         <v>987</v>
@@ -10560,7 +10659,9 @@
       <c r="T40" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U40" s="26"/>
+      <c r="U40" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V40" s="35"/>
       <c r="W40" s="37"/>
       <c r="X40" s="33"/>
@@ -10798,21 +10899,31 @@
         <v>641</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K44" s="49">
         <v>43921</v>
       </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
+      <c r="L44" s="55" t="s">
+        <v>988</v>
+      </c>
+      <c r="M44" s="42" t="s">
+        <v>990</v>
+      </c>
+      <c r="N44" s="26">
+        <v>28</v>
+      </c>
+      <c r="O44" s="48">
+        <v>44005</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1136</v>
+      </c>
       <c r="Q44" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R44" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S44" s="26" t="s">
         <v>987</v>
@@ -10820,7 +10931,9 @@
       <c r="T44" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U44" s="26"/>
+      <c r="U44" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V44" s="35"/>
       <c r="W44" s="37"/>
       <c r="X44" s="33"/>
@@ -11215,21 +11328,31 @@
         <v>641</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K51" s="49">
         <v>43921</v>
       </c>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
+      <c r="L51" s="55" t="s">
+        <v>988</v>
+      </c>
+      <c r="M51" s="42" t="s">
+        <v>990</v>
+      </c>
+      <c r="N51" s="26">
+        <v>55</v>
+      </c>
+      <c r="O51" s="48">
+        <v>44005</v>
+      </c>
+      <c r="P51" t="s">
+        <v>1137</v>
+      </c>
       <c r="Q51" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R51" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S51" s="26" t="s">
         <v>987</v>
@@ -11237,7 +11360,9 @@
       <c r="T51" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U51" s="26"/>
+      <c r="U51" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V51" s="35"/>
       <c r="W51" s="37"/>
       <c r="X51" s="33"/>
@@ -13815,7 +13940,7 @@
       <c r="L95" s="26" t="s">
         <v>1060</v>
       </c>
-      <c r="M95" s="26" t="s">
+      <c r="M95" s="42" t="s">
         <v>1061</v>
       </c>
       <c r="N95" s="44">
@@ -14197,21 +14322,31 @@
         <v>641</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K101" s="49">
         <v>43921</v>
       </c>
-      <c r="L101" s="26"/>
-      <c r="M101" s="26"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="26"/>
+      <c r="L101" s="55" t="s">
+        <v>988</v>
+      </c>
+      <c r="M101" s="42" t="s">
+        <v>990</v>
+      </c>
+      <c r="N101" s="26">
+        <v>84</v>
+      </c>
+      <c r="O101" s="48">
+        <v>44005</v>
+      </c>
+      <c r="P101" t="s">
+        <v>1125</v>
+      </c>
       <c r="Q101" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R101" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S101" s="26" t="s">
         <v>987</v>
@@ -14219,7 +14354,9 @@
       <c r="T101" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U101" s="26"/>
+      <c r="U101" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V101" s="35"/>
       <c r="W101" s="37"/>
       <c r="X101" s="33"/>
@@ -16301,16 +16438,16 @@
       <c r="K134" s="49">
         <v>43921</v>
       </c>
-      <c r="L134" s="26"/>
-      <c r="M134" s="26"/>
+      <c r="L134" s="55"/>
+      <c r="M134" s="42"/>
       <c r="N134" s="26"/>
-      <c r="O134" s="26"/>
-      <c r="P134" s="26"/>
+      <c r="O134" s="60"/>
+      <c r="P134" s="55"/>
       <c r="Q134" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R134" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S134" s="26" t="s">
         <v>987</v>
@@ -16360,16 +16497,16 @@
       <c r="K135" s="49">
         <v>43921</v>
       </c>
-      <c r="L135" s="26"/>
-      <c r="M135" s="26"/>
+      <c r="L135" s="55"/>
+      <c r="M135" s="42"/>
       <c r="N135" s="26"/>
-      <c r="O135" s="26"/>
-      <c r="P135" s="26"/>
+      <c r="O135" s="55"/>
+      <c r="P135" s="55"/>
       <c r="Q135" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R135" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S135" s="26" t="s">
         <v>987</v>
@@ -16414,21 +16551,31 @@
         <v>641</v>
       </c>
       <c r="J136" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K136" s="49">
         <v>43921</v>
       </c>
-      <c r="L136" s="26"/>
-      <c r="M136" s="26"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="26"/>
-      <c r="P136" s="26"/>
+      <c r="L136" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M136" s="42" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N136" s="26">
+        <v>1</v>
+      </c>
+      <c r="O136" s="56">
+        <v>42901</v>
+      </c>
+      <c r="P136" t="s">
+        <v>1138</v>
+      </c>
       <c r="Q136" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R136" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S136" s="26" t="s">
         <v>987</v>
@@ -16436,7 +16583,9 @@
       <c r="T136" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U136" s="26"/>
+      <c r="U136" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V136" s="35"/>
       <c r="W136" s="37"/>
       <c r="X136" s="33"/>
@@ -16473,21 +16622,31 @@
         <v>641</v>
       </c>
       <c r="J137" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K137" s="49">
         <v>43921</v>
       </c>
-      <c r="L137" s="26"/>
-      <c r="M137" s="26"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="26"/>
-      <c r="P137" s="26"/>
+      <c r="L137" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M137" s="42" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N137" s="26">
+        <v>1</v>
+      </c>
+      <c r="O137" s="56">
+        <v>42901</v>
+      </c>
+      <c r="P137" t="s">
+        <v>1138</v>
+      </c>
       <c r="Q137" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R137" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S137" s="26" t="s">
         <v>987</v>
@@ -16495,7 +16654,9 @@
       <c r="T137" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U137" s="26"/>
+      <c r="U137" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V137" s="35"/>
       <c r="W137" s="37"/>
       <c r="X137" s="33"/>
@@ -17929,16 +18090,26 @@
         <v>641</v>
       </c>
       <c r="J161" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K161" s="49">
         <v>43921</v>
       </c>
-      <c r="L161" s="26"/>
-      <c r="M161" s="26"/>
-      <c r="N161" s="26"/>
-      <c r="O161" s="26"/>
-      <c r="P161" s="26"/>
+      <c r="L161" s="58" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M161" s="42" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N161" s="55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O161" s="55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P161" s="57" t="s">
+        <v>1141</v>
+      </c>
       <c r="Q161" s="26" t="s">
         <v>987</v>
       </c>
@@ -17951,7 +18122,9 @@
       <c r="T161" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U161" s="26"/>
+      <c r="U161" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V161" s="35"/>
       <c r="W161" s="37"/>
       <c r="X161" s="33"/>
@@ -19906,16 +20079,26 @@
         <v>641</v>
       </c>
       <c r="J192" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K192" s="49">
         <v>43921</v>
       </c>
-      <c r="L192" s="26"/>
-      <c r="M192" s="26"/>
-      <c r="N192" s="26"/>
-      <c r="O192" s="26"/>
-      <c r="P192" s="26"/>
+      <c r="L192" s="58" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M192" s="42" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N192" s="55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O192" s="55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P192" s="59" t="s">
+        <v>1144</v>
+      </c>
       <c r="Q192" s="26" t="s">
         <v>987</v>
       </c>
@@ -19928,7 +20111,9 @@
       <c r="T192" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U192" s="26"/>
+      <c r="U192" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V192" s="35"/>
       <c r="W192" s="37"/>
       <c r="X192" s="33"/>
@@ -21261,21 +21446,29 @@
         <v>641</v>
       </c>
       <c r="J213" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K213" s="49">
         <v>43921</v>
       </c>
-      <c r="L213" s="26"/>
-      <c r="M213" s="26"/>
-      <c r="N213" s="26"/>
+      <c r="L213" s="40" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M213" s="42" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N213" s="26">
+        <v>13</v>
+      </c>
       <c r="O213" s="26"/>
-      <c r="P213" s="26"/>
+      <c r="P213" t="s">
+        <v>1104</v>
+      </c>
       <c r="Q213" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R213" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S213" s="26" t="s">
         <v>987</v>
@@ -21283,7 +21476,9 @@
       <c r="T213" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U213" s="26"/>
+      <c r="U213" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V213" s="35"/>
       <c r="W213" s="37"/>
       <c r="X213" s="33"/>
@@ -21976,7 +22171,7 @@
       <c r="L224" s="40" t="s">
         <v>989</v>
       </c>
-      <c r="M224" s="26" t="s">
+      <c r="M224" s="42" t="s">
         <v>991</v>
       </c>
       <c r="N224" s="44">
@@ -22848,10 +23043,10 @@
       <c r="K237" s="49">
         <v>43555</v>
       </c>
-      <c r="L237" s="40" t="s">
+      <c r="L237" s="55" t="s">
         <v>1001</v>
       </c>
-      <c r="M237" s="26" t="s">
+      <c r="M237" s="42" t="s">
         <v>1002</v>
       </c>
       <c r="N237" s="44">
@@ -23405,7 +23600,7 @@
       <c r="L245" s="26" t="s">
         <v>1033</v>
       </c>
-      <c r="M245" s="26" t="s">
+      <c r="M245" s="42" t="s">
         <v>1034</v>
       </c>
       <c r="N245" s="44">
@@ -24386,16 +24581,26 @@
       <c r="K261" s="49">
         <v>43555</v>
       </c>
-      <c r="L261" s="26"/>
-      <c r="M261" s="26"/>
-      <c r="N261" s="26"/>
-      <c r="O261" s="26"/>
-      <c r="P261" s="26"/>
+      <c r="L261" s="55" t="s">
+        <v>989</v>
+      </c>
+      <c r="M261" s="42" t="s">
+        <v>991</v>
+      </c>
+      <c r="N261" s="26">
+        <v>208</v>
+      </c>
+      <c r="O261" s="48">
+        <v>43660</v>
+      </c>
+      <c r="P261" t="s">
+        <v>1145</v>
+      </c>
       <c r="Q261" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R261" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S261" s="26" t="s">
         <v>987</v>
@@ -24403,7 +24608,9 @@
       <c r="T261" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U261" s="26"/>
+      <c r="U261" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V261" s="35"/>
       <c r="W261" s="37"/>
       <c r="X261" s="33"/>
@@ -24641,21 +24848,31 @@
         <v>710</v>
       </c>
       <c r="J265" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K265" s="49">
         <v>43555</v>
       </c>
-      <c r="L265" s="26"/>
-      <c r="M265" s="26"/>
-      <c r="N265" s="26"/>
-      <c r="O265" s="26"/>
-      <c r="P265" s="26"/>
+      <c r="L265" s="55" t="s">
+        <v>989</v>
+      </c>
+      <c r="M265" s="42" t="s">
+        <v>991</v>
+      </c>
+      <c r="N265" s="26">
+        <v>71</v>
+      </c>
+      <c r="O265" s="48">
+        <v>43660</v>
+      </c>
+      <c r="P265" t="s">
+        <v>1146</v>
+      </c>
       <c r="Q265" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R265" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S265" s="26" t="s">
         <v>987</v>
@@ -24663,7 +24880,9 @@
       <c r="T265" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U265" s="26"/>
+      <c r="U265" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V265" s="35"/>
       <c r="W265" s="37"/>
       <c r="X265" s="33"/>
@@ -25063,16 +25282,26 @@
       <c r="K272" s="49">
         <v>43555</v>
       </c>
-      <c r="L272" s="26"/>
-      <c r="M272" s="26"/>
-      <c r="N272" s="26"/>
-      <c r="O272" s="26"/>
-      <c r="P272" s="26"/>
+      <c r="L272" s="55" t="s">
+        <v>989</v>
+      </c>
+      <c r="M272" s="42" t="s">
+        <v>991</v>
+      </c>
+      <c r="N272" s="26">
+        <v>139</v>
+      </c>
+      <c r="O272" s="48">
+        <v>43660</v>
+      </c>
+      <c r="P272" t="s">
+        <v>1147</v>
+      </c>
       <c r="Q272" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R272" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S272" s="26" t="s">
         <v>987</v>
@@ -25080,7 +25309,9 @@
       <c r="T272" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U272" s="26"/>
+      <c r="U272" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V272" s="35"/>
       <c r="W272" s="37"/>
       <c r="X272" s="33"/>
@@ -28040,21 +28271,31 @@
         <v>710</v>
       </c>
       <c r="J322" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K322" s="49">
         <v>43555</v>
       </c>
-      <c r="L322" s="26"/>
-      <c r="M322" s="26"/>
-      <c r="N322" s="26"/>
-      <c r="O322" s="26"/>
-      <c r="P322" s="26"/>
+      <c r="L322" s="55" t="s">
+        <v>989</v>
+      </c>
+      <c r="M322" s="42" t="s">
+        <v>991</v>
+      </c>
+      <c r="N322" s="26">
+        <v>156</v>
+      </c>
+      <c r="O322" s="48">
+        <v>43660</v>
+      </c>
+      <c r="P322" t="s">
+        <v>1148</v>
+      </c>
       <c r="Q322" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R322" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S322" s="26" t="s">
         <v>987</v>
@@ -28062,7 +28303,9 @@
       <c r="T322" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U322" s="26"/>
+      <c r="U322" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V322" s="35"/>
       <c r="W322" s="37"/>
       <c r="X322" s="33"/>
@@ -30144,16 +30387,16 @@
       <c r="K355" s="49">
         <v>43555</v>
       </c>
-      <c r="L355" s="26"/>
-      <c r="M355" s="26"/>
+      <c r="L355" s="55"/>
+      <c r="M355" s="42"/>
       <c r="N355" s="26"/>
-      <c r="O355" s="26"/>
-      <c r="P355" s="26"/>
+      <c r="O355" s="55"/>
+      <c r="P355" s="55"/>
       <c r="Q355" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R355" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S355" s="26" t="s">
         <v>987</v>
@@ -30203,16 +30446,16 @@
       <c r="K356" s="49">
         <v>43555</v>
       </c>
-      <c r="L356" s="26"/>
-      <c r="M356" s="26"/>
+      <c r="L356" s="55"/>
+      <c r="M356" s="42"/>
       <c r="N356" s="26"/>
-      <c r="O356" s="26"/>
-      <c r="P356" s="26"/>
+      <c r="O356" s="55"/>
+      <c r="P356" s="55"/>
       <c r="Q356" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R356" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S356" s="26" t="s">
         <v>987</v>
@@ -30257,21 +30500,31 @@
         <v>710</v>
       </c>
       <c r="J357" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K357" s="49">
-        <v>43555</v>
-      </c>
-      <c r="L357" s="26"/>
-      <c r="M357" s="26"/>
-      <c r="N357" s="26"/>
-      <c r="O357" s="26"/>
-      <c r="P357" s="26"/>
+        <v>43921</v>
+      </c>
+      <c r="L357" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M357" s="42" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N357" s="26">
+        <v>1</v>
+      </c>
+      <c r="O357" s="56">
+        <v>42901</v>
+      </c>
+      <c r="P357" t="s">
+        <v>1138</v>
+      </c>
       <c r="Q357" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R357" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S357" s="26" t="s">
         <v>987</v>
@@ -30279,7 +30532,9 @@
       <c r="T357" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U357" s="26"/>
+      <c r="U357" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V357" s="35"/>
       <c r="W357" s="37"/>
       <c r="X357" s="33"/>
@@ -30316,21 +30571,31 @@
         <v>710</v>
       </c>
       <c r="J358" s="26" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="K358" s="49">
-        <v>43555</v>
-      </c>
-      <c r="L358" s="26"/>
-      <c r="M358" s="26"/>
-      <c r="N358" s="26"/>
-      <c r="O358" s="26"/>
-      <c r="P358" s="26"/>
+        <v>43921</v>
+      </c>
+      <c r="L358" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M358" s="42" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N358" s="26">
+        <v>1</v>
+      </c>
+      <c r="O358" s="56">
+        <v>42901</v>
+      </c>
+      <c r="P358" t="s">
+        <v>1138</v>
+      </c>
       <c r="Q358" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R358" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S358" s="26" t="s">
         <v>987</v>
@@ -30338,7 +30603,9 @@
       <c r="T358" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U358" s="26"/>
+      <c r="U358" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V358" s="35"/>
       <c r="W358" s="37"/>
       <c r="X358" s="33"/>
@@ -35095,16 +35362,24 @@
       <c r="K434" s="49">
         <v>43555</v>
       </c>
-      <c r="L434" s="26"/>
-      <c r="M434" s="26"/>
-      <c r="N434" s="26"/>
+      <c r="L434" s="40" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M434" s="42" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N434" s="26">
+        <v>13</v>
+      </c>
       <c r="O434" s="26"/>
-      <c r="P434" s="26"/>
+      <c r="P434" t="s">
+        <v>1104</v>
+      </c>
       <c r="Q434" s="26" t="s">
         <v>987</v>
       </c>
       <c r="R434" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="S434" s="26" t="s">
         <v>987</v>
@@ -35112,7 +35387,9 @@
       <c r="T434" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="U434" s="26"/>
+      <c r="U434" s="26" t="s">
+        <v>1129</v>
+      </c>
       <c r="V434" s="35"/>
       <c r="W434" s="37"/>
       <c r="X434" s="33"/>
@@ -35692,175 +35969,200 @@
   <mergeCells count="1">
     <mergeCell ref="AI2:AK2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D27">
-    <cfRule type="duplicateValues" dxfId="53" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50">
-    <cfRule type="duplicateValues" dxfId="52" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50">
-    <cfRule type="duplicateValues" dxfId="51" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50">
-    <cfRule type="duplicateValues" dxfId="50" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="48" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="duplicateValues" dxfId="45" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="duplicateValues" dxfId="43" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="42" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="duplicateValues" dxfId="40" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="duplicateValues" dxfId="35" priority="34" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="37" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D248">
-    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270:D271">
-    <cfRule type="duplicateValues" dxfId="33" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270:D271">
-    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270:D271">
-    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C270">
-    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C270">
-    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C271">
-    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C271">
-    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C295">
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C295">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D376">
-    <cfRule type="duplicateValues" dxfId="16" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D296:D443 D272:D294 D249:D269 D223:D247">
-    <cfRule type="duplicateValues" dxfId="15" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D296:D443 D272:D294 D223:D269">
-    <cfRule type="duplicateValues" dxfId="14" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="223"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296:C443 C272:C294 C223:C269">
-    <cfRule type="duplicateValues" dxfId="13" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D296:D443 D272:D294 D223:D269">
-    <cfRule type="duplicateValues" dxfId="11" priority="232"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296:C443 C272:C294 C223:C269">
-    <cfRule type="duplicateValues" dxfId="9" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:D222 D51:D73 D28:D48 D2:D26">
-    <cfRule type="duplicateValues" dxfId="8" priority="480"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="483"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:D222 D51:D73 D2:D48">
-    <cfRule type="duplicateValues" dxfId="7" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="488"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C222 C51:C73 C2:C48">
-    <cfRule type="duplicateValues" dxfId="6" priority="489"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="493"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:D222 D51:D73 D2:D48">
-    <cfRule type="duplicateValues" dxfId="4" priority="497"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="498"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="501"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:C222 C51:C73 C2:C48">
-    <cfRule type="duplicateValues" dxfId="2" priority="509"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="512"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AE15">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="T2">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="T2">
       <formula>NOT(ISERROR(SEARCH("T2",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="T1">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="T1">
       <formula>NOT(ISERROR(SEARCH("T1",AE5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J427 J206">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J427 J206" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>-900</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J23:J27 J37 J48 J75:J80 J92:J93 J113:J116 J125:J128 J141:J153 J156:J158 J443 J173 J392 J181 J195 J197 J199 J201 J203 J205 J207:J208 J222 J244:J248 J258 J269 J296:J301 J313:J314 J334:J337 J346:J349 J362:J374 J377:J379 J171 J394 J175:J179 J402 J416 J418 J420 J422 J424 J426 J428:J429 J396:J400">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J23:J27 J37 J48 J75:J80 J92:J93 J113:J116 J125:J128 J141:J153 J156:J158 J443 J173 J392 J181 J195 J197 J199 J201 J203 J205 J207:J208 J222 J244:J248 J258 J269 J296:J301 J313:J314 J334:J337 J346:J349 J362:J374 J377:J379 J171 J394 J175:J179 J402 J416 J418 J420 J422 J424 J426 J428:J429 J396:J400" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>-999999999</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W443 Q2:T443">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W443 Q2:T443" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X443">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X443" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>$AJ$5:$AJ$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA443">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA443" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"Error accepted, Error not accepted"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J47 J49:J50 J154:J155 J169:J170 J172 J174 J194 J196 J198 J200 J202 J204 J268 J270:J271 J375:J376 J390:J391 J393 J395 J415 J417 J419 J421 J425 J423">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J47 J49:J50 J154:J155 J169:J170 J172 J174 J194 J196 J198 J200 J202 J204 J268 J270:J271 J375:J376 J390:J391 J393 J395 J415 J417 J419 J421 J425 J423" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J403:J414 J28:J36 J38:J46 J51:J74 J81:J91 J94:J112 J117:J124 J129:J140 J159:J168 J182:J193 J209:J221 J2:J22 J223:J243 J430:J442 J272:J295 J302:J312 J259:J267 J249:J257 J338:J345 J350:J361 J380:J389 J315:J333">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J403:J414 J28:J36 J38:J46 J51:J74 J81:J91 J94:J112 J117:J124 J129:J140 J159:J168 J182:J193 J209:J221 J2:J22 J223:J243 J430:J442 J272:J295 J302:J312 J259:J267 J249:J257 J338:J345 J315:J333 J380:J389 J350:J361" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J180 J401">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J180 J401" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>"No, Low, Medium, High, Very high, NA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M30" r:id="rId1"/>
-    <hyperlink ref="M176" r:id="rId2"/>
+    <hyperlink ref="M30" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="M176" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{107D74DA-1D6C-4408-964A-E42D48248A7B}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{58B7297A-0BF8-406E-AFF2-F2DAA7DBF03F}"/>
+    <hyperlink ref="M5" r:id="rId5" xr:uid="{2D30FD52-41D7-48D3-823A-22D522B1C2A6}"/>
+    <hyperlink ref="M95" r:id="rId6" xr:uid="{92FFFF26-87E5-4017-94B3-E02FD58DD5BD}"/>
+    <hyperlink ref="M16" r:id="rId7" xr:uid="{193AA9A0-B1B2-404C-B5C8-5E53CCF74EFF}"/>
+    <hyperlink ref="M224" r:id="rId8" xr:uid="{6E961A80-4D72-4A68-979B-909C778DE179}"/>
+    <hyperlink ref="M237" r:id="rId9" xr:uid="{6B02AE6B-B188-4A01-94F4-EE2A50FD166F}"/>
+    <hyperlink ref="M245" r:id="rId10" xr:uid="{8A1BA823-8536-42E4-98A1-A0197A2989A4}"/>
+    <hyperlink ref="M8" r:id="rId11" xr:uid="{001F19E7-E956-4AA1-B0F6-0807F3034ABE}"/>
+    <hyperlink ref="M40" r:id="rId12" xr:uid="{59230097-723A-44CF-9E97-D72DD6832B1E}"/>
+    <hyperlink ref="M44" r:id="rId13" xr:uid="{02BC440A-4DBB-4B8B-A273-650702972B70}"/>
+    <hyperlink ref="M51" r:id="rId14" xr:uid="{E175E444-C900-4F51-AFBD-06F1338420B5}"/>
+    <hyperlink ref="M101" r:id="rId15" xr:uid="{BD9A601E-E476-49F8-AD6D-35E88B2ADF4E}"/>
+    <hyperlink ref="M136" r:id="rId16" xr:uid="{F56E3A8F-F877-4947-B5EE-18FF5DE8AEC7}"/>
+    <hyperlink ref="M137" r:id="rId17" xr:uid="{A501F938-4EC5-4EAB-8697-FB2DD7E5FEA9}"/>
+    <hyperlink ref="M161" r:id="rId18" xr:uid="{1465AF23-A62B-441B-81EE-76F8EE1633B5}"/>
+    <hyperlink ref="M192" r:id="rId19" xr:uid="{4D64F0CF-8DBE-411B-A862-989CBA1F8810}"/>
+    <hyperlink ref="M213" r:id="rId20" xr:uid="{AB098854-4AC2-49A2-BA43-95B86C8DA33E}"/>
+    <hyperlink ref="M261" r:id="rId21" xr:uid="{14A055CA-62E5-4912-9A78-690B22E156F3}"/>
+    <hyperlink ref="M265" r:id="rId22" xr:uid="{E7DAC597-1465-4097-87A7-1FFFD5ADA9A1}"/>
+    <hyperlink ref="M272" r:id="rId23" xr:uid="{F1C8040A-79BD-4EDE-AD8E-49FA87A30050}"/>
+    <hyperlink ref="M322" r:id="rId24" xr:uid="{0828B85D-CAB7-4EC1-AAFB-4E4936EB1E25}"/>
+    <hyperlink ref="M434" r:id="rId25" xr:uid="{A0E123C1-863C-424F-A40D-1CFB347BE0CC}"/>
+    <hyperlink ref="M357" r:id="rId26" xr:uid="{390EA2E0-653A-4FD8-8DC3-6DC214F250F2}"/>
+    <hyperlink ref="M358" r:id="rId27" xr:uid="{0447090C-2654-4080-A77D-C2949E3C0A0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
+  <legacyDrawing r:id="rId29"/>
 </worksheet>
 </file>